--- a/Schematic/Manufacturing Files/BOM/ESP_IoT_Dimmer.xlsx
+++ b/Schematic/Manufacturing Files/BOM/ESP_IoT_Dimmer.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68B3E9EA-4E03-4162-9369-50897C7EDD41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_SocialMedia_\SasaKaranovic.com\SourceFiles\2018-07-22-IoT-Dimmer\Schematic\Manufacturing Files\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F5D5172-CA96-4B5B-94B9-3E00513F3161}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="10215" xr2:uid="{647FCD3B-4B0A-4403-A48F-B0A21123A7B5}"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Designator</t>
   </si>
@@ -287,6 +292,12 @@
   </si>
   <si>
     <t>PCA9685PW,118</t>
+  </si>
+  <si>
+    <t>* Note</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number is for your reference only. I already had most of the components in stock so I used the ones I have handy. You may also replace any component with the one you have laying around.</t>
   </si>
 </sst>
 </file>
@@ -349,13 +360,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,9 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3900AD6-2B32-438A-9F19-9BCD23ED67B3}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1105,6 +1119,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
